--- a/칼로리데이터셋/음식분류 AI 데이터 영양DB.xlsx
+++ b/칼로리데이터셋/음식분류 AI 데이터 영양DB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIthe_최하나\Desktop\음식AI프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sprint\enterproject\칼로리데이터셋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71438774-2FA2-4D68-961A-C299580D68F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EA4B9A6-49E8-4540-BB73-E52A92904EB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="400외식메뉴" sheetId="1" r:id="rId1"/>
@@ -1381,7 +1380,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -1619,9 +1618,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2 2" xfId="2" xr:uid="{82538E90-A6DF-459A-9C6B-171E1AF072CB}"/>
-    <cellStyle name="표준 3" xfId="1" xr:uid="{DF0DF535-101C-42CA-BCF1-8EB7206FABB4}"/>
-    <cellStyle name="표준 4" xfId="3" xr:uid="{02706934-4ED7-41C3-97EA-4ADB84893549}"/>
+    <cellStyle name="표준 2 2" xfId="2"/>
+    <cellStyle name="표준 3" xfId="1"/>
+    <cellStyle name="표준 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1932,14 +1931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AF8556-4407-40BA-AB7E-23E2BC86AB26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="3" sqref="I1:I1048576 K1:K1048576 L1:P1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -22003,7 +22002,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P401" xr:uid="{458F0126-99F3-41B3-8D21-53042A6A1A19}"/>
+  <autoFilter ref="A1:P401"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
